--- a/public/Sample_Users.xlsx
+++ b/public/Sample_Users.xlsx
@@ -43,7 +43,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -60,28 +60,25 @@
     <border/>
     <border>
       <left style="thin">
-        <color rgb="FF9A9A9A"/>
+        <color rgb="FF888888"/>
       </left>
       <right style="thin">
-        <color rgb="FF9A9A9A"/>
+        <color rgb="FF888888"/>
       </right>
       <top style="thin">
-        <color rgb="FF9A9A9A"/>
+        <color rgb="FF888888"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF9A9A9A"/>
+        <color rgb="FF888888"/>
       </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
@@ -306,27 +303,27 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/public/Sample_Users.xlsx
+++ b/public/Sample_Users.xlsx
@@ -13,16 +13,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>Confirm Password</t>
+    <t>Name*</t>
+  </si>
+  <si>
+    <t>Email*</t>
+  </si>
+  <si>
+    <t>Password*</t>
+  </si>
+  <si>
+    <t>Confirm Password*</t>
   </si>
   <si>
     <t>test</t>
@@ -35,7 +35,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -43,9 +43,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="8.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -56,8 +67,22 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
+    <border>
+      <left style="thin">
+        <color rgb="FF757575"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF757575"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF757575"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF757575"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF888888"/>
@@ -76,12 +101,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -312,6 +352,23 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -326,6 +383,23 @@
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
